--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Col11a1</t>
+  </si>
+  <si>
+    <t>Ddr1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col11a1</t>
-  </si>
-  <si>
-    <t>Ddr1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07609233333333333</v>
+        <v>0.008946000000000001</v>
       </c>
       <c r="H2">
-        <v>0.228277</v>
+        <v>0.026838</v>
       </c>
       <c r="I2">
-        <v>0.01471694079596306</v>
+        <v>0.002061341618639358</v>
       </c>
       <c r="J2">
-        <v>0.01551578426224222</v>
+        <v>0.002069799870758975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N2">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O2">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P2">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q2">
-        <v>0.02722073868033334</v>
+        <v>0.004246057872</v>
       </c>
       <c r="R2">
-        <v>0.244986648123</v>
+        <v>0.03821452084800001</v>
       </c>
       <c r="S2">
-        <v>0.0005303129420065094</v>
+        <v>5.810277511255221E-05</v>
       </c>
       <c r="T2">
-        <v>0.0007067962641640399</v>
+        <v>7.856175336297425E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07609233333333333</v>
+        <v>0.008946000000000001</v>
       </c>
       <c r="H3">
-        <v>0.228277</v>
+        <v>0.026838</v>
       </c>
       <c r="I3">
-        <v>0.01471694079596306</v>
+        <v>0.002061341618639358</v>
       </c>
       <c r="J3">
-        <v>0.01551578426224222</v>
+        <v>0.002069799870758975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O3">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P3">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q3">
-        <v>0.1954980461031111</v>
+        <v>0.022984254048</v>
       </c>
       <c r="R3">
-        <v>1.759482414928</v>
+        <v>0.206858286432</v>
       </c>
       <c r="S3">
-        <v>0.003808682240514256</v>
+        <v>0.0003145150123570223</v>
       </c>
       <c r="T3">
-        <v>0.005076177037652532</v>
+        <v>0.0004252611132924564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07609233333333333</v>
+        <v>0.008946000000000001</v>
       </c>
       <c r="H4">
-        <v>0.228277</v>
+        <v>0.026838</v>
       </c>
       <c r="I4">
-        <v>0.01471694079596306</v>
+        <v>0.002061341618639358</v>
       </c>
       <c r="J4">
-        <v>0.01551578426224222</v>
+        <v>0.002069799870758975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N4">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O4">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P4">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q4">
-        <v>0.04012102704788889</v>
+        <v>0.005381490156000001</v>
       </c>
       <c r="R4">
-        <v>0.361089243431</v>
+        <v>0.048433411404</v>
       </c>
       <c r="S4">
-        <v>0.0007816356543425055</v>
+        <v>7.363995539636902E-05</v>
       </c>
       <c r="T4">
-        <v>0.00104175688855792</v>
+        <v>9.956983986226409E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07609233333333333</v>
+        <v>0.008946000000000001</v>
       </c>
       <c r="H5">
-        <v>0.228277</v>
+        <v>0.026838</v>
       </c>
       <c r="I5">
-        <v>0.01471694079596306</v>
+        <v>0.002061341618639358</v>
       </c>
       <c r="J5">
-        <v>0.01551578426224222</v>
+        <v>0.002069799870758975</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N5">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O5">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P5">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q5">
-        <v>0.4735717840268333</v>
+        <v>0.116316791073</v>
       </c>
       <c r="R5">
-        <v>2.841430704160999</v>
+        <v>0.697900746438</v>
       </c>
       <c r="S5">
-        <v>0.009226099592219657</v>
+        <v>0.001591671276572803</v>
       </c>
       <c r="T5">
-        <v>0.00819764106317207</v>
+        <v>0.001434750589483508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.07609233333333333</v>
+        <v>0.008946000000000001</v>
       </c>
       <c r="H6">
-        <v>0.228277</v>
+        <v>0.026838</v>
       </c>
       <c r="I6">
-        <v>0.01471694079596306</v>
+        <v>0.002061341618639358</v>
       </c>
       <c r="J6">
-        <v>0.01551578426224222</v>
+        <v>0.002069799870758975</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N6">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O6">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P6">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q6">
-        <v>0.01900274131622222</v>
+        <v>0.001710955302</v>
       </c>
       <c r="R6">
-        <v>0.171024671846</v>
+        <v>0.015398597718</v>
       </c>
       <c r="S6">
-        <v>0.0003702103668801339</v>
+        <v>2.34125992006109E-05</v>
       </c>
       <c r="T6">
-        <v>0.000493413008695657</v>
+        <v>3.165657475777266E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>12.829857</v>
       </c>
       <c r="I7">
-        <v>0.8271365310113251</v>
+        <v>0.9854206049367128</v>
       </c>
       <c r="J7">
-        <v>0.8720339470354798</v>
+        <v>0.9894640569511935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N7">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O7">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P7">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q7">
-        <v>1.529887744727</v>
+        <v>2.029820229208</v>
       </c>
       <c r="R7">
-        <v>13.768989702543</v>
+        <v>18.268382062872</v>
       </c>
       <c r="S7">
-        <v>0.02980518935851097</v>
+        <v>0.02777592577677934</v>
       </c>
       <c r="T7">
-        <v>0.03972408520069415</v>
+        <v>0.03755630305224789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>12.829857</v>
       </c>
       <c r="I8">
-        <v>0.8271365310113251</v>
+        <v>0.9854206049367128</v>
       </c>
       <c r="J8">
-        <v>0.8720339470354798</v>
+        <v>0.9894640569511935</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O8">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P8">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q8">
         <v>10.98758076933867</v>
@@ -948,10 +948,10 @@
         <v>98.888226924048</v>
       </c>
       <c r="S8">
-        <v>0.2140594475318912</v>
+        <v>0.1503533285972811</v>
       </c>
       <c r="T8">
-        <v>0.2852964840950495</v>
+        <v>0.2032953003652662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>12.829857</v>
       </c>
       <c r="I9">
-        <v>0.8271365310113251</v>
+        <v>0.9854206049367128</v>
       </c>
       <c r="J9">
-        <v>0.8720339470354798</v>
+        <v>0.9894640569511935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N9">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O9">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P9">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q9">
-        <v>2.254922921352334</v>
+        <v>2.572611563767334</v>
       </c>
       <c r="R9">
-        <v>20.294306292171</v>
+        <v>23.153504073906</v>
       </c>
       <c r="S9">
-        <v>0.04393028501038552</v>
+        <v>0.03520344650204162</v>
       </c>
       <c r="T9">
-        <v>0.05854988417126145</v>
+        <v>0.04759918052558864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>12.829857</v>
       </c>
       <c r="I10">
-        <v>0.8271365310113251</v>
+        <v>0.9854206049367128</v>
       </c>
       <c r="J10">
-        <v>0.8720339470354798</v>
+        <v>0.9894640569511935</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N10">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O10">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P10">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q10">
-        <v>26.6161648711835</v>
+        <v>55.60503003820951</v>
       </c>
       <c r="R10">
-        <v>159.696989227101</v>
+        <v>333.6301802292571</v>
       </c>
       <c r="S10">
-        <v>0.5185346681266029</v>
+        <v>0.7608955536715298</v>
       </c>
       <c r="T10">
-        <v>0.4607321919327205</v>
+        <v>0.6858799051247897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>12.829857</v>
       </c>
       <c r="I11">
-        <v>0.8271365310113251</v>
+        <v>0.9854206049367128</v>
       </c>
       <c r="J11">
-        <v>0.8720339470354798</v>
+        <v>0.9894640569511935</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N11">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O11">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P11">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q11">
-        <v>1.068011467187334</v>
+        <v>0.8179190646863334</v>
       </c>
       <c r="R11">
-        <v>9.612103204686001</v>
+        <v>7.361271582177</v>
       </c>
       <c r="S11">
-        <v>0.02080694098393467</v>
+        <v>0.01119235038908086</v>
       </c>
       <c r="T11">
-        <v>0.02773130163575409</v>
+        <v>0.01513336788330103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.003415</v>
+        <v>0.001122</v>
       </c>
       <c r="H12">
-        <v>0.010245</v>
+        <v>0.003366</v>
       </c>
       <c r="I12">
-        <v>0.0006604916765799514</v>
+        <v>0.0002585317791318309</v>
       </c>
       <c r="J12">
-        <v>0.0006963435202261795</v>
+        <v>0.0002595926061917695</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N12">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O12">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P12">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q12">
-        <v>0.001221658195</v>
+        <v>0.0005325371039999999</v>
       </c>
       <c r="R12">
-        <v>0.010994923755</v>
+        <v>0.004792833936</v>
       </c>
       <c r="S12">
-        <v>2.380027813076521E-05</v>
+        <v>7.287202512439479E-06</v>
       </c>
       <c r="T12">
-        <v>3.172079415079307E-05</v>
+        <v>9.853150824195967E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.003415</v>
+        <v>0.001122</v>
       </c>
       <c r="H13">
-        <v>0.010245</v>
+        <v>0.003366</v>
       </c>
       <c r="I13">
-        <v>0.0006604916765799514</v>
+        <v>0.0002585317791318309</v>
       </c>
       <c r="J13">
-        <v>0.0006963435202261795</v>
+        <v>0.0002595926061917695</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O13">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P13">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q13">
-        <v>0.008773890853333332</v>
+        <v>0.002882666336</v>
       </c>
       <c r="R13">
-        <v>0.07896501768</v>
+        <v>0.025943997024</v>
       </c>
       <c r="S13">
-        <v>0.0001709324616762467</v>
+        <v>3.94462155001765E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002278172297285763</v>
+        <v>5.333590086230004E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003415</v>
+        <v>0.001122</v>
       </c>
       <c r="H14">
-        <v>0.010245</v>
+        <v>0.003366</v>
       </c>
       <c r="I14">
-        <v>0.0006604916765799514</v>
+        <v>0.0002585317791318309</v>
       </c>
       <c r="J14">
-        <v>0.0006963435202261795</v>
+        <v>0.0002595926061917695</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N14">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O14">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P14">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q14">
-        <v>0.001800619081666667</v>
+        <v>0.0006749420920000001</v>
       </c>
       <c r="R14">
-        <v>0.016205571735</v>
+        <v>0.006074478828000001</v>
       </c>
       <c r="S14">
-        <v>3.507956245587146E-05</v>
+        <v>9.235862950450038E-06</v>
       </c>
       <c r="T14">
-        <v>4.675372167706729E-05</v>
+        <v>1.248796784322159E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003415</v>
+        <v>0.001122</v>
       </c>
       <c r="H15">
-        <v>0.010245</v>
+        <v>0.003366</v>
       </c>
       <c r="I15">
-        <v>0.0006604916765799514</v>
+        <v>0.0002585317791318309</v>
       </c>
       <c r="J15">
-        <v>0.0006963435202261795</v>
+        <v>0.0002595926061917695</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N15">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O15">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P15">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q15">
-        <v>0.0212537527975</v>
+        <v>0.014588356761</v>
       </c>
       <c r="R15">
-        <v>0.127522516785</v>
+        <v>0.087530140566</v>
       </c>
       <c r="S15">
-        <v>0.0004140644494289411</v>
+        <v>0.0001996261091342147</v>
       </c>
       <c r="T15">
-        <v>0.0003679075539462928</v>
+        <v>0.0001799452449586961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003415</v>
+        <v>0.001122</v>
       </c>
       <c r="H16">
-        <v>0.010245</v>
+        <v>0.003366</v>
       </c>
       <c r="I16">
-        <v>0.0006604916765799514</v>
+        <v>0.0002585317791318309</v>
       </c>
       <c r="J16">
-        <v>0.0006963435202261795</v>
+        <v>0.0002595926061917695</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N16">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O16">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P16">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q16">
-        <v>0.0008528370566666668</v>
+        <v>0.000214586614</v>
       </c>
       <c r="R16">
-        <v>0.007675533510000001</v>
+        <v>0.001931279526</v>
       </c>
       <c r="S16">
-        <v>1.661492488812702E-05</v>
+        <v>2.936389034550127E-06</v>
       </c>
       <c r="T16">
-        <v>2.214422072345005E-05</v>
+        <v>3.970341703355794E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.798606</v>
+        <v>0.053205</v>
       </c>
       <c r="H17">
-        <v>1.597212</v>
+        <v>0.10641</v>
       </c>
       <c r="I17">
-        <v>0.1544575741923305</v>
+        <v>0.0122595216655161</v>
       </c>
       <c r="J17">
-        <v>0.1085610762935575</v>
+        <v>0.008206550571855674</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.357733</v>
+        <v>0.474632</v>
       </c>
       <c r="N17">
-        <v>1.073199</v>
+        <v>1.423896</v>
       </c>
       <c r="O17">
-        <v>0.03603418328298074</v>
+        <v>0.02818687333878431</v>
       </c>
       <c r="P17">
-        <v>0.04555337018213343</v>
+        <v>0.03795620749274008</v>
       </c>
       <c r="Q17">
-        <v>0.285687720198</v>
+        <v>0.02525279556</v>
       </c>
       <c r="R17">
-        <v>1.714126321188</v>
+        <v>0.15151677336</v>
       </c>
       <c r="S17">
-        <v>0.005565752537891033</v>
+        <v>0.0003455575843799844</v>
       </c>
       <c r="T17">
-        <v>0.004945322895771254</v>
+        <v>0.0003114895363050187</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.798606</v>
+        <v>0.053205</v>
       </c>
       <c r="H18">
-        <v>1.597212</v>
+        <v>0.10641</v>
       </c>
       <c r="I18">
-        <v>0.1544575741923305</v>
+        <v>0.0122595216655161</v>
       </c>
       <c r="J18">
-        <v>0.1085610762935575</v>
+        <v>0.008206550571855674</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.707663999999999</v>
       </c>
       <c r="O18">
-        <v>0.2587957846211489</v>
+        <v>0.1525778209264635</v>
       </c>
       <c r="P18">
-        <v>0.3271621306314144</v>
+        <v>0.2054600153861819</v>
       </c>
       <c r="Q18">
-        <v>2.051795572128</v>
+        <v>0.13669542104</v>
       </c>
       <c r="R18">
-        <v>12.310773432768</v>
+        <v>0.8201725262399999</v>
       </c>
       <c r="S18">
-        <v>0.0399729691037835</v>
+        <v>0.001870531101325215</v>
       </c>
       <c r="T18">
-        <v>0.03551707302383979</v>
+        <v>0.001686118006760947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.798606</v>
+        <v>0.053205</v>
       </c>
       <c r="H19">
-        <v>1.597212</v>
+        <v>0.10641</v>
       </c>
       <c r="I19">
-        <v>0.1544575741923305</v>
+        <v>0.0122595216655161</v>
       </c>
       <c r="J19">
-        <v>0.1085610762935575</v>
+        <v>0.008206550571855674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5272676666666667</v>
+        <v>0.6015526666666667</v>
       </c>
       <c r="N19">
-        <v>1.581803</v>
+        <v>1.804658</v>
       </c>
       <c r="O19">
-        <v>0.05311128618230988</v>
+        <v>0.03572428496591312</v>
       </c>
       <c r="P19">
-        <v>0.06714174874763135</v>
+        <v>0.04810602284256246</v>
       </c>
       <c r="Q19">
-        <v>0.421079122206</v>
+        <v>0.03200560963000001</v>
       </c>
       <c r="R19">
-        <v>2.526474733236</v>
+        <v>0.19203365778</v>
       </c>
       <c r="S19">
-        <v>0.008203440425954226</v>
+        <v>0.000437962645524683</v>
       </c>
       <c r="T19">
-        <v>0.007288980508274475</v>
+        <v>0.0003947845092683331</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.798606</v>
+        <v>0.053205</v>
       </c>
       <c r="H20">
-        <v>1.597212</v>
+        <v>0.10641</v>
       </c>
       <c r="I20">
-        <v>0.1544575741923305</v>
+        <v>0.0122595216655161</v>
       </c>
       <c r="J20">
-        <v>0.1085610762935575</v>
+        <v>0.008206550571855674</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.223646499999999</v>
+        <v>13.0021005</v>
       </c>
       <c r="N20">
-        <v>12.447293</v>
+        <v>26.004201</v>
       </c>
       <c r="O20">
-        <v>0.6269033571671653</v>
+        <v>0.7721530784516092</v>
       </c>
       <c r="P20">
-        <v>0.5283420370261974</v>
+        <v>0.6931832443092185</v>
       </c>
       <c r="Q20">
-        <v>4.970241436778999</v>
+        <v>0.6917767571025001</v>
       </c>
       <c r="R20">
-        <v>19.880965747116</v>
+        <v>2.76710702841</v>
       </c>
       <c r="S20">
-        <v>0.09682997180106849</v>
+        <v>0.009466227394372457</v>
       </c>
       <c r="T20">
-        <v>0.05735738019069459</v>
+        <v>0.005688643349986588</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>2</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.798606</v>
+        <v>0.053205</v>
       </c>
       <c r="H21">
-        <v>1.597212</v>
+        <v>0.10641</v>
       </c>
       <c r="I21">
-        <v>0.1544575741923305</v>
+        <v>0.0122595216655161</v>
       </c>
       <c r="J21">
-        <v>0.1085610762935575</v>
+        <v>0.008206550571855674</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.2497326666666667</v>
+        <v>0.1912536666666667</v>
       </c>
       <c r="N21">
-        <v>0.749198</v>
+        <v>0.573761</v>
       </c>
       <c r="O21">
-        <v>0.02515538874639522</v>
+        <v>0.01135794231722979</v>
       </c>
       <c r="P21">
-        <v>0.03180071341262338</v>
+        <v>0.01529450996929694</v>
       </c>
       <c r="Q21">
-        <v>0.199438005996</v>
+        <v>0.010175651335</v>
       </c>
       <c r="R21">
-        <v>1.196628035976</v>
+        <v>0.06105390801</v>
       </c>
       <c r="S21">
-        <v>0.003885440323633256</v>
+        <v>0.0001392429399137607</v>
       </c>
       <c r="T21">
-        <v>0.003452319674977364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.01565833333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.046975</v>
-      </c>
-      <c r="I22">
-        <v>0.003028462323801192</v>
-      </c>
-      <c r="J22">
-        <v>0.003192848888494366</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.357733</v>
-      </c>
-      <c r="N22">
-        <v>1.073199</v>
-      </c>
-      <c r="O22">
-        <v>0.03603418328298074</v>
-      </c>
-      <c r="P22">
-        <v>0.04555337018213343</v>
-      </c>
-      <c r="Q22">
-        <v>0.005601502558333334</v>
-      </c>
-      <c r="R22">
-        <v>0.050413523025</v>
-      </c>
-      <c r="S22">
-        <v>0.0001091281664414539</v>
-      </c>
-      <c r="T22">
-        <v>0.0001454450273531971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.01565833333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.046975</v>
-      </c>
-      <c r="I23">
-        <v>0.003028462323801192</v>
-      </c>
-      <c r="J23">
-        <v>0.003192848888494366</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.569221333333333</v>
-      </c>
-      <c r="N23">
-        <v>7.707663999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.2587957846211489</v>
-      </c>
-      <c r="P23">
-        <v>0.3271621306314144</v>
-      </c>
-      <c r="Q23">
-        <v>0.04022972404444444</v>
-      </c>
-      <c r="R23">
-        <v>0.3620675164</v>
-      </c>
-      <c r="S23">
-        <v>0.0007837532832837177</v>
-      </c>
-      <c r="T23">
-        <v>0.00104457924514396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.01565833333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.046975</v>
-      </c>
-      <c r="I24">
-        <v>0.003028462323801192</v>
-      </c>
-      <c r="J24">
-        <v>0.003192848888494366</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.5272676666666667</v>
-      </c>
-      <c r="N24">
-        <v>1.581803</v>
-      </c>
-      <c r="O24">
-        <v>0.05311128618230988</v>
-      </c>
-      <c r="P24">
-        <v>0.06714174874763135</v>
-      </c>
-      <c r="Q24">
-        <v>0.008256132880555557</v>
-      </c>
-      <c r="R24">
-        <v>0.07430519592500001</v>
-      </c>
-      <c r="S24">
-        <v>0.0001608455291717483</v>
-      </c>
-      <c r="T24">
-        <v>0.0002143734578604427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.01565833333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.046975</v>
-      </c>
-      <c r="I25">
-        <v>0.003028462323801192</v>
-      </c>
-      <c r="J25">
-        <v>0.003192848888494366</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.223646499999999</v>
-      </c>
-      <c r="N25">
-        <v>12.447293</v>
-      </c>
-      <c r="O25">
-        <v>0.6269033571671653</v>
-      </c>
-      <c r="P25">
-        <v>0.5283420370261974</v>
-      </c>
-      <c r="Q25">
-        <v>0.09745193144583332</v>
-      </c>
-      <c r="R25">
-        <v>0.5847115886749999</v>
-      </c>
-      <c r="S25">
-        <v>0.001898553197845242</v>
-      </c>
-      <c r="T25">
-        <v>0.001686916285663944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.01565833333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.046975</v>
-      </c>
-      <c r="I26">
-        <v>0.003028462323801192</v>
-      </c>
-      <c r="J26">
-        <v>0.003192848888494366</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.2497326666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.749198</v>
-      </c>
-      <c r="O26">
-        <v>0.02515538874639522</v>
-      </c>
-      <c r="P26">
-        <v>0.03180071341262338</v>
-      </c>
-      <c r="Q26">
-        <v>0.00391039733888889</v>
-      </c>
-      <c r="R26">
-        <v>0.03519357605</v>
-      </c>
-      <c r="S26">
-        <v>7.618214705903044E-05</v>
-      </c>
-      <c r="T26">
-        <v>0.0001015348724728224</v>
+        <v>0.0001255151695347861</v>
       </c>
     </row>
   </sheetData>
